--- a/Code/Results/Cases/Case_4_202/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_202/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.075145603722291</v>
+        <v>0.3728393510611738</v>
       </c>
       <c r="C2">
-        <v>0.2395969423593982</v>
+        <v>0.07131736678489631</v>
       </c>
       <c r="D2">
-        <v>0.2002987679984471</v>
+        <v>0.07872640225792793</v>
       </c>
       <c r="E2">
-        <v>1.389074100502597</v>
+        <v>0.4147455181249313</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007937959076119346</v>
+        <v>0.002430260566710424</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3089596690136744</v>
+        <v>0.5652666147676086</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.270459460259417</v>
+        <v>0.4167048701545468</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6376819735912278</v>
+        <v>1.354487868334006</v>
       </c>
       <c r="O2">
-        <v>1.817330858189678</v>
+        <v>2.722997057814212</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.932740779109082</v>
+        <v>0.3317514051404373</v>
       </c>
       <c r="C3">
-        <v>0.2081254254788689</v>
+        <v>0.06216950224509787</v>
       </c>
       <c r="D3">
-        <v>0.1736207284598663</v>
+        <v>0.07138503577733957</v>
       </c>
       <c r="E3">
-        <v>1.193069439186488</v>
+        <v>0.3618866571516293</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007982117149444067</v>
+        <v>0.002433074920849654</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.302548274248732</v>
+        <v>0.5680074896709328</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.10223276912123</v>
+        <v>0.368047700144956</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6781711336011282</v>
+        <v>1.37095577368613</v>
       </c>
       <c r="O3">
-        <v>1.717943957130188</v>
+        <v>2.719235485481647</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8456837400959785</v>
+        <v>0.3065718528187631</v>
       </c>
       <c r="C4">
-        <v>0.1889255700623806</v>
+        <v>0.0565438193407175</v>
       </c>
       <c r="D4">
-        <v>0.1574072857861779</v>
+        <v>0.06691191868283397</v>
       </c>
       <c r="E4">
-        <v>1.07488856847543</v>
+        <v>0.3295189922669834</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008010028497945936</v>
+        <v>0.002434893890683622</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2993610402239106</v>
+        <v>0.5700182368928424</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9994354069918927</v>
+        <v>0.3382027217104167</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7041200533433782</v>
+        <v>1.381572108247143</v>
       </c>
       <c r="O4">
-        <v>1.661127913264465</v>
+        <v>2.718637902293807</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8102828820800028</v>
+        <v>0.2963235066082177</v>
       </c>
       <c r="C5">
-        <v>0.1811260969107593</v>
+        <v>0.05424905112680278</v>
       </c>
       <c r="D5">
-        <v>0.1508369098176985</v>
+        <v>0.06509775574764376</v>
       </c>
       <c r="E5">
-        <v>1.027191599179915</v>
+        <v>0.3163493327397617</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008021609260226818</v>
+        <v>0.002435658077610145</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2982399290186351</v>
+        <v>0.5709199546523713</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9576428924217737</v>
+        <v>0.3260486082881471</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7149596448470579</v>
+        <v>1.386025226058939</v>
       </c>
       <c r="O5">
-        <v>1.638961830966565</v>
+        <v>2.718824129305858</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8044086033409314</v>
+        <v>0.2946225420151052</v>
       </c>
       <c r="C6">
-        <v>0.1798323063807885</v>
+        <v>0.0538678694727821</v>
       </c>
       <c r="D6">
-        <v>0.149747974695714</v>
+        <v>0.06479703866743591</v>
       </c>
       <c r="E6">
-        <v>1.01929722373167</v>
+        <v>0.3141637057907332</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008023544886729448</v>
+        <v>0.002435786357834863</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2980642016612443</v>
+        <v>0.5710746528728521</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9507084817688849</v>
+        <v>0.3240309145883487</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7167753294402139</v>
+        <v>1.386772322823211</v>
       </c>
       <c r="O6">
-        <v>1.635338781464753</v>
+        <v>2.718880985766219</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8452060311208527</v>
+        <v>0.3064335889200152</v>
       </c>
       <c r="C7">
-        <v>0.1888202921924176</v>
+        <v>0.05651288046932734</v>
       </c>
       <c r="D7">
-        <v>0.157318533388775</v>
+        <v>0.06688741716055802</v>
       </c>
       <c r="E7">
-        <v>1.074243540772258</v>
+        <v>0.3293413011213318</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008010183835223509</v>
+        <v>0.002434904103945769</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2993452146679481</v>
+        <v>0.5700300646114087</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9988714139424246</v>
+        <v>0.338038774555514</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.704265176936044</v>
+        <v>1.381631650981044</v>
       </c>
       <c r="O7">
-        <v>1.660825068529221</v>
+        <v>2.718638674804794</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.025953035737246</v>
+        <v>0.3586623054264066</v>
       </c>
       <c r="C8">
-        <v>0.2287157994703364</v>
+        <v>0.06816500071714415</v>
       </c>
       <c r="D8">
-        <v>0.1910622555298147</v>
+        <v>0.07618792805907049</v>
       </c>
       <c r="E8">
-        <v>1.320990320971376</v>
+        <v>0.3965005171208702</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007953022846597242</v>
+        <v>0.00243121212426556</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3065868145507089</v>
+        <v>0.5661435547562412</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.212335937793739</v>
+        <v>0.3999216257291494</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6514114672618732</v>
+        <v>1.360061133238678</v>
       </c>
       <c r="O8">
-        <v>1.78214457422078</v>
+        <v>2.72134426701399</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.384403499709776</v>
+        <v>0.461460398411873</v>
       </c>
       <c r="C9">
-        <v>0.3082557211567405</v>
+        <v>0.09094696628088172</v>
       </c>
       <c r="D9">
-        <v>0.258814809770854</v>
+        <v>0.09470146326171403</v>
       </c>
       <c r="E9">
-        <v>1.826160385815243</v>
+        <v>0.5289785444732757</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007846971382478155</v>
+        <v>0.00242469044018236</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3272544651530183</v>
+        <v>0.561129033643688</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.636156356462863</v>
+        <v>0.5215134720082517</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5568090399296537</v>
+        <v>1.321772167710814</v>
       </c>
       <c r="O9">
-        <v>2.056910491559535</v>
+        <v>2.740272853758114</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.651720989563188</v>
+        <v>0.5372135153181716</v>
       </c>
       <c r="C10">
-        <v>0.3679876763498271</v>
+        <v>0.1076485985971374</v>
       </c>
       <c r="D10">
-        <v>0.3099440626968004</v>
+        <v>0.108474572119718</v>
       </c>
       <c r="E10">
-        <v>2.216712187353849</v>
+        <v>0.6269069576437971</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007772295190758968</v>
+        <v>0.002420332162151052</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3471676594573623</v>
+        <v>0.5590425688746734</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.952707388854549</v>
+        <v>0.6109970235971502</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4934256238805901</v>
+        <v>1.296090868192101</v>
       </c>
       <c r="O10">
-        <v>2.286512938433276</v>
+        <v>2.762544573741337</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.774568277707971</v>
+        <v>0.5717248311590311</v>
       </c>
       <c r="C11">
-        <v>0.3955674907647051</v>
+        <v>0.1152399216067295</v>
       </c>
       <c r="D11">
-        <v>0.3335919433973231</v>
+        <v>0.1147783092507524</v>
       </c>
       <c r="E11">
-        <v>2.40024959349023</v>
+        <v>0.671613665167655</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007738917357125731</v>
+        <v>0.002418442537731786</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3574470443210984</v>
+        <v>0.5584421937062629</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.098331956502193</v>
+        <v>0.6517394140654176</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4660689838618861</v>
+        <v>1.284940684881857</v>
       </c>
       <c r="O11">
-        <v>2.39828719196808</v>
+        <v>2.774506357543402</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.821300604545371</v>
+        <v>0.5848004943735248</v>
       </c>
       <c r="C12">
-        <v>0.4060815269551767</v>
+        <v>0.1181137083724195</v>
       </c>
       <c r="D12">
-        <v>0.3426112643076209</v>
+        <v>0.1171709084847237</v>
       </c>
       <c r="E12">
-        <v>2.47075372913892</v>
+        <v>0.688567746433705</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007726353232832661</v>
+        <v>0.002417740280490739</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3615330592059323</v>
+        <v>0.558265146551733</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.153755214890623</v>
+        <v>0.6671725667901853</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4559360277139284</v>
+        <v>1.280795078677814</v>
       </c>
       <c r="O12">
-        <v>2.44178745326542</v>
+        <v>2.779300151853676</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.811225922939514</v>
+        <v>0.5819841113455766</v>
       </c>
       <c r="C13">
-        <v>0.4038138225253078</v>
+        <v>0.1174948257667552</v>
       </c>
       <c r="D13">
-        <v>0.340665785959402</v>
+        <v>0.1166553742415886</v>
       </c>
       <c r="E13">
-        <v>2.455522076630785</v>
+        <v>0.6849152575246933</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007729055959288971</v>
+        <v>0.00241789093358214</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3606441559042466</v>
+        <v>0.5583010372403692</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.141805677546472</v>
+        <v>0.6638485477581071</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4581080336619561</v>
+        <v>1.281684493944097</v>
       </c>
       <c r="O13">
-        <v>2.432364645087034</v>
+        <v>2.778255960390368</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.778408504207192</v>
+        <v>0.5728004359205556</v>
       </c>
       <c r="C14">
-        <v>0.3964310098306214</v>
+        <v>0.1154763672975889</v>
       </c>
       <c r="D14">
-        <v>0.3343326269043416</v>
+        <v>0.1149750393509379</v>
       </c>
       <c r="E14">
-        <v>2.406028940676336</v>
+        <v>0.6730079837155643</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007737882249083851</v>
+        <v>0.002418384496406541</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3577792177406209</v>
+        <v>0.5584266189452052</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.102885807999286</v>
+        <v>0.6530090122597301</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4652307167126377</v>
+        <v>1.284598084656619</v>
       </c>
       <c r="O14">
-        <v>2.401841728605035</v>
+        <v>2.774895447011261</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.758335657246135</v>
+        <v>0.5671760682638194</v>
       </c>
       <c r="C15">
-        <v>0.3919183262067918</v>
+        <v>0.1142398891256278</v>
       </c>
       <c r="D15">
-        <v>0.330462032402437</v>
+        <v>0.1139465035557805</v>
       </c>
       <c r="E15">
-        <v>2.375848561509983</v>
+        <v>0.6657176953574435</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.000774329810642924</v>
+        <v>0.002418688548277278</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3560501122601423</v>
+        <v>0.5585100966127854</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.079083931412271</v>
+        <v>0.6463701132663289</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4696234903201368</v>
+        <v>1.28639274029176</v>
       </c>
       <c r="O15">
-        <v>2.383302195096064</v>
+        <v>2.772871460501051</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.643720472254131</v>
+        <v>0.5349591141335281</v>
       </c>
       <c r="C16">
-        <v>0.3661944293710064</v>
+        <v>0.1071523627361728</v>
       </c>
       <c r="D16">
-        <v>0.3084071499846317</v>
+        <v>0.1080633789026422</v>
       </c>
       <c r="E16">
-        <v>2.204848812186185</v>
+        <v>0.623988615222089</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007774487614598654</v>
+        <v>0.002420457518663772</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3465219325216751</v>
+        <v>0.5590888356586916</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.943226889606109</v>
+        <v>0.6083351117285645</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4952443330998726</v>
+        <v>1.296830286151359</v>
       </c>
       <c r="O16">
-        <v>2.279365666496204</v>
+        <v>2.761799752544533</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.573749290865322</v>
+        <v>0.515207839883459</v>
       </c>
       <c r="C17">
-        <v>0.3505258442013997</v>
+        <v>0.1028027925753463</v>
       </c>
       <c r="D17">
-        <v>0.2949825904792789</v>
+        <v>0.1044640814753706</v>
       </c>
       <c r="E17">
-        <v>2.101556415220998</v>
+        <v>0.5984310806177433</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007793766449232573</v>
+        <v>0.002421566490594598</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3410015647615054</v>
+        <v>0.559533307168735</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.860329418327069</v>
+        <v>0.5850108690580385</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5113497277575085</v>
+        <v>1.303369856229684</v>
       </c>
       <c r="O17">
-        <v>2.217562384241006</v>
+        <v>2.755477057341864</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.533618511753559</v>
+        <v>0.5038522347686296</v>
       </c>
       <c r="C18">
-        <v>0.3415512751880101</v>
+        <v>0.1003004370052452</v>
       </c>
       <c r="D18">
-        <v>0.2872971980024062</v>
+        <v>0.1023974636158442</v>
       </c>
       <c r="E18">
-        <v>2.042687618609293</v>
+        <v>0.5837458794870827</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007804911565626504</v>
+        <v>0.00242221309749114</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3379401319442152</v>
+        <v>0.5598217741106808</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.812798889384595</v>
+        <v>0.571598773884233</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5207512135773751</v>
+        <v>1.307181342470526</v>
       </c>
       <c r="O18">
-        <v>2.182696552906094</v>
+        <v>2.752012627155779</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.520049655624462</v>
+        <v>0.5000082575502915</v>
       </c>
       <c r="C19">
-        <v>0.3385187639688354</v>
+        <v>0.09945307887755916</v>
       </c>
       <c r="D19">
-        <v>0.2847010038065321</v>
+        <v>0.1016983609186894</v>
       </c>
       <c r="E19">
-        <v>2.022844303392603</v>
+        <v>0.5787762123800206</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007808695089572528</v>
+        <v>0.002422433533290901</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3369226005215467</v>
+        <v>0.5599250761711119</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.796730322029504</v>
+        <v>0.5670582596586371</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5239577047562882</v>
+        <v>1.308480445507421</v>
       </c>
       <c r="O19">
-        <v>2.171005208700109</v>
+        <v>2.750869180650454</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.581185726714352</v>
+        <v>0.5173099018293215</v>
       </c>
       <c r="C20">
-        <v>0.3521898220203639</v>
+        <v>0.1032658734176266</v>
       </c>
       <c r="D20">
-        <v>0.2964078669154446</v>
+        <v>0.1048468599084202</v>
       </c>
       <c r="E20">
-        <v>2.112494866238521</v>
+        <v>0.6011501772280639</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007791708411910579</v>
+        <v>0.002421447532940808</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3415773219244969</v>
+        <v>0.5594825947249618</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.869138170758561</v>
+        <v>0.5874934253464232</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5096208916775034</v>
+        <v>1.302668521581777</v>
       </c>
       <c r="O20">
-        <v>2.22407005474588</v>
+        <v>2.756132288466517</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.788041714486837</v>
+        <v>0.575497717310725</v>
       </c>
       <c r="C21">
-        <v>0.3985975180852392</v>
+        <v>0.1160692611994705</v>
       </c>
       <c r="D21">
-        <v>0.3361910107633008</v>
+        <v>0.1154684448308956</v>
       </c>
       <c r="E21">
-        <v>2.420537704658315</v>
+        <v>0.6765047558845225</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007735287793442023</v>
+        <v>0.002418239164507572</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3586153184147136</v>
+        <v>0.5583883661781357</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.114309580444058</v>
+        <v>0.6561927158747949</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4631323488471413</v>
+        <v>1.283740208718374</v>
       </c>
       <c r="O21">
-        <v>2.410774174762281</v>
+        <v>2.775875335435956</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.924492319552655</v>
+        <v>0.6135673315839085</v>
       </c>
       <c r="C22">
-        <v>0.4293429165115867</v>
+        <v>0.1244318850102957</v>
       </c>
       <c r="D22">
-        <v>0.3625713503027015</v>
+        <v>0.1224423884165162</v>
       </c>
       <c r="E22">
-        <v>2.627793823872452</v>
+        <v>0.7258976970347391</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007698847420361194</v>
+        <v>0.00241621981751683</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3708877365459671</v>
+        <v>0.557966492719828</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.276190309511293</v>
+        <v>0.7011200767151706</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4340765839628578</v>
+        <v>1.271816763821906</v>
       </c>
       <c r="O22">
-        <v>2.539702632987002</v>
+        <v>2.790318528637158</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.851538788216601</v>
+        <v>0.5932452649031177</v>
       </c>
       <c r="C23">
-        <v>0.4128913470781299</v>
+        <v>0.1199690551808033</v>
       </c>
       <c r="D23">
-        <v>0.3484539219903695</v>
+        <v>0.1187173221769058</v>
       </c>
       <c r="E23">
-        <v>2.5165767377934</v>
+        <v>0.6995219401091077</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007718260189173325</v>
+        <v>0.002417290511325043</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3642272883461928</v>
+        <v>0.5581647707735158</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.189624723488635</v>
+        <v>0.6771389866478614</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4494577619720346</v>
+        <v>1.278139544738686</v>
       </c>
       <c r="O23">
-        <v>2.470216173713709</v>
+        <v>2.782468705863863</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.577823415748753</v>
+        <v>0.5163595606414333</v>
       </c>
       <c r="C24">
-        <v>0.3514374341324924</v>
+        <v>0.1030565199603757</v>
       </c>
       <c r="D24">
-        <v>0.2957633986336674</v>
+        <v>0.1046737974763232</v>
       </c>
       <c r="E24">
-        <v>2.107547998908586</v>
+        <v>0.5999208483873986</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007792638658797805</v>
+        <v>0.002421501285501004</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3413166736520452</v>
+        <v>0.5595054192383415</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.86515533739302</v>
+        <v>0.5863710699707383</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5104020563459351</v>
+        <v>1.30298543362264</v>
       </c>
       <c r="O24">
-        <v>2.221125872341361</v>
+        <v>2.755835527199451</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.286855188410641</v>
+        <v>0.4336106611200705</v>
       </c>
       <c r="C25">
-        <v>0.2865498169461489</v>
+        <v>0.08479057997772088</v>
       </c>
       <c r="D25">
-        <v>0.2402784742739072</v>
+        <v>0.08966324012212112</v>
       </c>
       <c r="E25">
-        <v>1.686599151086966</v>
+        <v>0.4930437835459998</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007875057851093715</v>
+        <v>0.002426378317122093</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3208938560565855</v>
+        <v>0.5622056366039274</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.520748546866685</v>
+        <v>0.4885935989583459</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5813736827319218</v>
+        <v>1.331700513827861</v>
       </c>
       <c r="O25">
-        <v>1.978117554049675</v>
+        <v>2.733687568917674</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_202/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_202/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3728393510611738</v>
+        <v>1.075145603722007</v>
       </c>
       <c r="C2">
-        <v>0.07131736678489631</v>
+        <v>0.2395969423591708</v>
       </c>
       <c r="D2">
-        <v>0.07872640225792793</v>
+        <v>0.2002987679985608</v>
       </c>
       <c r="E2">
-        <v>0.4147455181249313</v>
+        <v>1.389074100502626</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002430260566710424</v>
+        <v>0.0007937959076326582</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5652666147676086</v>
+        <v>0.3089596690136709</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4167048701545468</v>
+        <v>1.270459460259474</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.354487868334006</v>
+        <v>0.6376819735912047</v>
       </c>
       <c r="O2">
-        <v>2.722997057814212</v>
+        <v>1.817330858189734</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3317514051404373</v>
+        <v>0.9327407791088547</v>
       </c>
       <c r="C3">
-        <v>0.06216950224509787</v>
+        <v>0.2081254254786131</v>
       </c>
       <c r="D3">
-        <v>0.07138503577733957</v>
+        <v>0.1736207284597953</v>
       </c>
       <c r="E3">
-        <v>0.3618866571516293</v>
+        <v>1.193069439186516</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002433074920849654</v>
+        <v>0.0007982117149143284</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5680074896709328</v>
+        <v>0.3025482742487284</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.368047700144956</v>
+        <v>1.102232769121173</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.37095577368613</v>
+        <v>0.6781711336011167</v>
       </c>
       <c r="O3">
-        <v>2.719235485481647</v>
+        <v>1.717943957130132</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3065718528187631</v>
+        <v>0.8456837400958648</v>
       </c>
       <c r="C4">
-        <v>0.0565438193407175</v>
+        <v>0.188925570062338</v>
       </c>
       <c r="D4">
-        <v>0.06691191868283397</v>
+        <v>0.1574072857862916</v>
       </c>
       <c r="E4">
-        <v>0.3295189922669834</v>
+        <v>1.07488856847543</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002434893890683622</v>
+        <v>0.0008010028497585788</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5700182368928424</v>
+        <v>0.2993610402239106</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3382027217104167</v>
+        <v>0.9994354069918643</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.381572108247143</v>
+        <v>0.7041200533433125</v>
       </c>
       <c r="O4">
-        <v>2.718637902293807</v>
+        <v>1.661127913264437</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2963235066082177</v>
+        <v>0.8102828820797754</v>
       </c>
       <c r="C5">
-        <v>0.05424905112680278</v>
+        <v>0.1811260969105888</v>
       </c>
       <c r="D5">
-        <v>0.06509775574764376</v>
+        <v>0.1508369098178974</v>
       </c>
       <c r="E5">
-        <v>0.3163493327397617</v>
+        <v>1.027191599179915</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002435658077610145</v>
+        <v>0.0008021609260214514</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5709199546523713</v>
+        <v>0.2982399290186244</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3260486082881471</v>
+        <v>0.9576428924218021</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.386025226058939</v>
+        <v>0.71495964484712</v>
       </c>
       <c r="O5">
-        <v>2.718824129305858</v>
+        <v>1.63896183096665</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2946225420151052</v>
+        <v>0.8044086033410451</v>
       </c>
       <c r="C6">
-        <v>0.0538678694727821</v>
+        <v>0.1798323063810301</v>
       </c>
       <c r="D6">
-        <v>0.06479703866743591</v>
+        <v>0.1497479746956998</v>
       </c>
       <c r="E6">
-        <v>0.3141637057907332</v>
+        <v>1.019297223731712</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002435786357834863</v>
+        <v>0.0008023544886951112</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5710746528728521</v>
+        <v>0.2980642016612514</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3240309145883487</v>
+        <v>0.9507084817688849</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.386772322823211</v>
+        <v>0.7167753294402122</v>
       </c>
       <c r="O6">
-        <v>2.718880985766219</v>
+        <v>1.635338781464725</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3064335889200152</v>
+        <v>0.8452060311208243</v>
       </c>
       <c r="C7">
-        <v>0.05651288046932734</v>
+        <v>0.1888202921920765</v>
       </c>
       <c r="D7">
-        <v>0.06688741716055802</v>
+        <v>0.1573185333886613</v>
       </c>
       <c r="E7">
-        <v>0.3293413011213318</v>
+        <v>1.074243540772272</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002434904103945769</v>
+        <v>0.0008010183835572446</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5700300646114087</v>
+        <v>0.2993452146679587</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.338038774555514</v>
+        <v>0.9988714139424246</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.381631650981044</v>
+        <v>0.7042651769360049</v>
       </c>
       <c r="O7">
-        <v>2.718638674804794</v>
+        <v>1.660825068529249</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3586623054264066</v>
+        <v>1.025953035737217</v>
       </c>
       <c r="C8">
-        <v>0.06816500071714415</v>
+        <v>0.2287157994703364</v>
       </c>
       <c r="D8">
-        <v>0.07618792805907049</v>
+        <v>0.1910622555298858</v>
       </c>
       <c r="E8">
-        <v>0.3965005171208702</v>
+        <v>1.320990320971418</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.00243121212426556</v>
+        <v>0.0007953022847117667</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5661435547562412</v>
+        <v>0.3065868145507089</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3999216257291494</v>
+        <v>1.212335937793739</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.360061133238678</v>
+        <v>0.6514114672618634</v>
       </c>
       <c r="O8">
-        <v>2.72134426701399</v>
+        <v>1.782144574220837</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.461460398411873</v>
+        <v>1.384403499709833</v>
       </c>
       <c r="C9">
-        <v>0.09094696628088172</v>
+        <v>0.308255721156371</v>
       </c>
       <c r="D9">
-        <v>0.09470146326171403</v>
+        <v>0.2588148097706835</v>
       </c>
       <c r="E9">
-        <v>0.5289785444732757</v>
+        <v>1.826160385815271</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.00242469044018236</v>
+        <v>0.0007846971382474681</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.561129033643688</v>
+        <v>0.3272544651530183</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5215134720082517</v>
+        <v>1.636156356462919</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.321772167710814</v>
+        <v>0.556809039929659</v>
       </c>
       <c r="O9">
-        <v>2.740272853758114</v>
+        <v>2.056910491559563</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5372135153181716</v>
+        <v>1.651720989563046</v>
       </c>
       <c r="C10">
-        <v>0.1076485985971374</v>
+        <v>0.3679876763498271</v>
       </c>
       <c r="D10">
-        <v>0.108474572119718</v>
+        <v>0.309944062696843</v>
       </c>
       <c r="E10">
-        <v>0.6269069576437971</v>
+        <v>2.216712187353906</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002420332162151052</v>
+        <v>0.000777229519045992</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5590425688746734</v>
+        <v>0.3471676594573694</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6109970235971502</v>
+        <v>1.952707388854634</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.296090868192101</v>
+        <v>0.4934256238805776</v>
       </c>
       <c r="O10">
-        <v>2.762544573741337</v>
+        <v>2.286512938433304</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5717248311590311</v>
+        <v>1.774568277707885</v>
       </c>
       <c r="C11">
-        <v>0.1152399216067295</v>
+        <v>0.3955674907643925</v>
       </c>
       <c r="D11">
-        <v>0.1147783092507524</v>
+        <v>0.3335919433975079</v>
       </c>
       <c r="E11">
-        <v>0.671613665167655</v>
+        <v>2.400249593490173</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002418442537731786</v>
+        <v>0.0007738917357156359</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5584421937062629</v>
+        <v>0.3574470443210984</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6517394140654176</v>
+        <v>2.09833195650225</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.284940684881857</v>
+        <v>0.4660689838618453</v>
       </c>
       <c r="O11">
-        <v>2.774506357543402</v>
+        <v>2.398287191968109</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5848004943735248</v>
+        <v>1.821300604545286</v>
       </c>
       <c r="C12">
-        <v>0.1181137083724195</v>
+        <v>0.4060815269550915</v>
       </c>
       <c r="D12">
-        <v>0.1171709084847237</v>
+        <v>0.3426112643076777</v>
       </c>
       <c r="E12">
-        <v>0.688567746433705</v>
+        <v>2.470753729138906</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002417740280490739</v>
+        <v>0.0007726353232540253</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.558265146551733</v>
+        <v>0.3615330592059323</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6671725667901853</v>
+        <v>2.153755214890623</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.280795078677814</v>
+        <v>0.4559360277139266</v>
       </c>
       <c r="O12">
-        <v>2.779300151853676</v>
+        <v>2.441787453265476</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5819841113455766</v>
+        <v>1.8112259229394</v>
       </c>
       <c r="C13">
-        <v>0.1174948257667552</v>
+        <v>0.403813822525052</v>
       </c>
       <c r="D13">
-        <v>0.1166553742415886</v>
+        <v>0.340665785959402</v>
       </c>
       <c r="E13">
-        <v>0.6849152575246933</v>
+        <v>2.4555220766308</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.00241789093358214</v>
+        <v>0.0007729055959292495</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5583010372403692</v>
+        <v>0.3606441559042324</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6638485477581071</v>
+        <v>2.141805677546529</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.281684493944097</v>
+        <v>0.4581080336619578</v>
       </c>
       <c r="O13">
-        <v>2.778255960390368</v>
+        <v>2.432364645086977</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5728004359205556</v>
+        <v>1.778408504207221</v>
       </c>
       <c r="C14">
-        <v>0.1154763672975889</v>
+        <v>0.3964310098306214</v>
       </c>
       <c r="D14">
-        <v>0.1149750393509379</v>
+        <v>0.3343326269045264</v>
       </c>
       <c r="E14">
-        <v>0.6730079837155643</v>
+        <v>2.406028940676336</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002418384496406541</v>
+        <v>0.0007737882249362338</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5584266189452052</v>
+        <v>0.3577792177405996</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6530090122597301</v>
+        <v>2.102885807999343</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.284598084656619</v>
+        <v>0.4652307167126111</v>
       </c>
       <c r="O14">
-        <v>2.774895447011261</v>
+        <v>2.401841728605064</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5671760682638194</v>
+        <v>1.758335657246022</v>
       </c>
       <c r="C15">
-        <v>0.1142398891256278</v>
+        <v>0.3919183262068771</v>
       </c>
       <c r="D15">
-        <v>0.1139465035557805</v>
+        <v>0.3304620324024512</v>
       </c>
       <c r="E15">
-        <v>0.6657176953574435</v>
+        <v>2.375848561509983</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002418688548277278</v>
+        <v>0.0007743298107014302</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5585100966127854</v>
+        <v>0.3560501122601636</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6463701132663289</v>
+        <v>2.079083931412328</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.28639274029176</v>
+        <v>0.4696234903201386</v>
       </c>
       <c r="O15">
-        <v>2.772871460501051</v>
+        <v>2.383302195096178</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5349591141335281</v>
+        <v>1.643720472254216</v>
       </c>
       <c r="C16">
-        <v>0.1071523627361728</v>
+        <v>0.3661944293710064</v>
       </c>
       <c r="D16">
-        <v>0.1080633789026422</v>
+        <v>0.3084071499848449</v>
       </c>
       <c r="E16">
-        <v>0.623988615222089</v>
+        <v>2.204848812186214</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002420457518663772</v>
+        <v>0.0007774487614886574</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5590888356586916</v>
+        <v>0.3465219325216822</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6083351117285645</v>
+        <v>1.943226889606052</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.296830286151359</v>
+        <v>0.4952443330998566</v>
       </c>
       <c r="O16">
-        <v>2.761799752544533</v>
+        <v>2.279365666496176</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.515207839883459</v>
+        <v>1.573749290865294</v>
       </c>
       <c r="C17">
-        <v>0.1028027925753463</v>
+        <v>0.3505258442013144</v>
       </c>
       <c r="D17">
-        <v>0.1044640814753706</v>
+        <v>0.2949825904791936</v>
       </c>
       <c r="E17">
-        <v>0.5984310806177433</v>
+        <v>2.101556415220969</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002421566490594598</v>
+        <v>0.0007793766449801535</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.559533307168735</v>
+        <v>0.3410015647615197</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5850108690580385</v>
+        <v>1.86032941832724</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.303369856229684</v>
+        <v>0.5113497277575174</v>
       </c>
       <c r="O17">
-        <v>2.755477057341864</v>
+        <v>2.217562384241035</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5038522347686296</v>
+        <v>1.533618511753474</v>
       </c>
       <c r="C18">
-        <v>0.1003004370052452</v>
+        <v>0.3415512751879248</v>
       </c>
       <c r="D18">
-        <v>0.1023974636158442</v>
+        <v>0.2872971980021788</v>
       </c>
       <c r="E18">
-        <v>0.5837458794870827</v>
+        <v>2.04268761860925</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.00242221309749114</v>
+        <v>0.0007804911565327665</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5598217741106808</v>
+        <v>0.337940131944201</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.571598773884233</v>
+        <v>1.81279888938451</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.307181342470526</v>
+        <v>0.5207512135774213</v>
       </c>
       <c r="O18">
-        <v>2.752012627155779</v>
+        <v>2.182696552906009</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5000082575502915</v>
+        <v>1.520049655624263</v>
       </c>
       <c r="C19">
-        <v>0.09945307887755916</v>
+        <v>0.3385187639688638</v>
       </c>
       <c r="D19">
-        <v>0.1016983609186894</v>
+        <v>0.2847010038064184</v>
       </c>
       <c r="E19">
-        <v>0.5787762123800206</v>
+        <v>2.02284430339256</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002422433533290901</v>
+        <v>0.0007808695089554389</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5599250761711119</v>
+        <v>0.3369226005215467</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5670582596586371</v>
+        <v>1.796730322029532</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.308480445507421</v>
+        <v>0.5239577047563539</v>
       </c>
       <c r="O19">
-        <v>2.750869180650454</v>
+        <v>2.171005208700137</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5173099018293215</v>
+        <v>1.581185726714466</v>
       </c>
       <c r="C20">
-        <v>0.1032658734176266</v>
+        <v>0.3521898220206765</v>
       </c>
       <c r="D20">
-        <v>0.1048468599084202</v>
+        <v>0.2964078669154446</v>
       </c>
       <c r="E20">
-        <v>0.6011501772280639</v>
+        <v>2.112494866238492</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002421447532940808</v>
+        <v>0.0007791708412197204</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5594825947249618</v>
+        <v>0.3415773219244755</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5874934253464232</v>
+        <v>1.869138170758532</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.302668521581777</v>
+        <v>0.5096208916775584</v>
       </c>
       <c r="O20">
-        <v>2.756132288466517</v>
+        <v>2.224070054745795</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.575497717310725</v>
+        <v>1.788041714486837</v>
       </c>
       <c r="C21">
-        <v>0.1160692611994705</v>
+        <v>0.3985975180852677</v>
       </c>
       <c r="D21">
-        <v>0.1154684448308956</v>
+        <v>0.3361910107633577</v>
       </c>
       <c r="E21">
-        <v>0.6765047558845225</v>
+        <v>2.420537704658358</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002418239164507572</v>
+        <v>0.0007735287793445744</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5583883661781357</v>
+        <v>0.3586153184147207</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6561927158747949</v>
+        <v>2.114309580443859</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.283740208718374</v>
+        <v>0.4631323488471768</v>
       </c>
       <c r="O21">
-        <v>2.775875335435956</v>
+        <v>2.410774174762253</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6135673315839085</v>
+        <v>1.924492319552627</v>
       </c>
       <c r="C22">
-        <v>0.1244318850102957</v>
+        <v>0.4293429165118141</v>
       </c>
       <c r="D22">
-        <v>0.1224423884165162</v>
+        <v>0.3625713503027725</v>
       </c>
       <c r="E22">
-        <v>0.7258976970347391</v>
+        <v>2.627793823872423</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.00241621981751683</v>
+        <v>0.0007698847420009036</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.557966492719828</v>
+        <v>0.37088773654596</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.7011200767151706</v>
+        <v>2.276190309511435</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.271816763821906</v>
+        <v>0.4340765839629039</v>
       </c>
       <c r="O22">
-        <v>2.790318528637158</v>
+        <v>2.53970263298703</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5932452649031177</v>
+        <v>1.851538788216772</v>
       </c>
       <c r="C23">
-        <v>0.1199690551808033</v>
+        <v>0.4128913470783573</v>
       </c>
       <c r="D23">
-        <v>0.1187173221769058</v>
+        <v>0.3484539219902842</v>
       </c>
       <c r="E23">
-        <v>0.6995219401091077</v>
+        <v>2.516576737793386</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002417290511325043</v>
+        <v>0.0007718260189171361</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5581647707735158</v>
+        <v>0.3642272883461715</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6771389866478614</v>
+        <v>2.189624723488635</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.278139544738686</v>
+        <v>0.4494577619720843</v>
       </c>
       <c r="O23">
-        <v>2.782468705863863</v>
+        <v>2.470216173713709</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5163595606414333</v>
+        <v>1.57782341574881</v>
       </c>
       <c r="C24">
-        <v>0.1030565199603757</v>
+        <v>0.3514374341321798</v>
       </c>
       <c r="D24">
-        <v>0.1046737974763232</v>
+        <v>0.2957633986338095</v>
       </c>
       <c r="E24">
-        <v>0.5999208483873986</v>
+        <v>2.107547998908572</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002421501285501004</v>
+        <v>0.0007792638658793485</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5595054192383415</v>
+        <v>0.3413166736520381</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5863710699707383</v>
+        <v>1.865155337393077</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.30298543362264</v>
+        <v>0.5104020563459883</v>
       </c>
       <c r="O24">
-        <v>2.755835527199451</v>
+        <v>2.221125872341418</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4336106611200705</v>
+        <v>1.286855188410897</v>
       </c>
       <c r="C25">
-        <v>0.08479057997772088</v>
+        <v>0.2865498169464047</v>
       </c>
       <c r="D25">
-        <v>0.08966324012212112</v>
+        <v>0.2402784742740067</v>
       </c>
       <c r="E25">
-        <v>0.4930437835459998</v>
+        <v>1.686599151086938</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002426378317122093</v>
+        <v>0.000787505785108895</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5622056366039274</v>
+        <v>0.3208938560565855</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4885935989583459</v>
+        <v>1.520748546866741</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.331700513827861</v>
+        <v>0.5813736827318614</v>
       </c>
       <c r="O25">
-        <v>2.733687568917674</v>
+        <v>1.978117554049732</v>
       </c>
     </row>
   </sheetData>
